--- a/data_excel/923.xlsx
+++ b/data_excel/923.xlsx
@@ -90,9 +90,6 @@
     <t>不夠</t>
   </si>
   <si>
-    <t>pv</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -100,6 +97,10 @@
   </si>
   <si>
     <t>special</t>
+  </si>
+  <si>
+    <t>insuf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -472,7 +473,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -614,7 +615,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -661,7 +662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -672,20 +673,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
